--- a/tests/testthat/fixtures/stata_results/basic_3f/basic_3f.xlsx
+++ b/tests/testthat/fixtures/stata_results/basic_3f/basic_3f.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="33" uniqueCount="17">
   <si>
     <t>ln_real_wage</t>
   </si>
@@ -54,6 +54,12 @@
     <t>advanced_degree</t>
   </si>
   <si>
+    <t>foreign_born</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
     <t>Intercept</t>
   </si>
   <si>
@@ -68,7 +74,127 @@
     <numFmt numFmtId="166" formatCode="0.######"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="139">
+  <fonts count="169">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -634,7 +760,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="139">
+  <borders count="169">
     <border>
       <left/>
       <right/>
@@ -1577,6 +1703,216 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
@@ -1612,7 +1948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2146,23 +2482,143 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="135" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="136" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="137" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="134" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="135" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="136" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="139" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="140" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="141" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="144" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="145" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="146" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="149" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="150" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="151" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="154" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="155" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="156" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="159" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="160" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="161" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="165" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="166" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="167" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="168" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2175,7 +2631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2216,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26">
-        <v>-0.021598756991303425</v>
+        <v>-0.023448545331923754</v>
       </c>
     </row>
     <row r="6">
@@ -2224,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="31">
-        <v>0.24042816059652017</v>
+        <v>0.24455519635574152</v>
       </c>
     </row>
     <row r="7">
@@ -2232,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36">
-        <v>-0.012894659612034953</v>
+        <v>-0.015171907030635978</v>
       </c>
     </row>
     <row r="8">
@@ -2240,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="41">
-        <v>0.014002997225214182</v>
+        <v>0.014453188373285667</v>
       </c>
     </row>
     <row r="9">
@@ -2248,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="46">
-        <v>-0.025803973319686507</v>
+        <v>-0.025132750522614638</v>
       </c>
     </row>
     <row r="10">
@@ -2256,7 +2712,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="51">
-        <v>0.006362929658566093</v>
+        <v>0.0067974883864450868</v>
       </c>
     </row>
     <row r="11">
@@ -2264,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="56">
-        <v>-0.00067639845999291663</v>
+        <v>-0.00066804655671171248</v>
       </c>
     </row>
     <row r="12">
@@ -2272,7 +2728,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="61">
-        <v>-0.0052066766032783122</v>
+        <v>-0.005054431556861254</v>
       </c>
     </row>
     <row r="13">
@@ -2280,118 +2736,166 @@
         <v>12</v>
       </c>
       <c r="B13" s="66">
-        <v>-0.01027763549212616</v>
+        <v>-0.01011900567441181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="68" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="71">
-        <v>-0.066539252888802317</v>
+        <v>-0.0018624938905276477</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="73" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" s="76">
-        <v>-0.021906889909664273</v>
+        <v>-0.0018624938905276488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="81">
-        <v>0.010234350950626303</v>
+        <v>-0.032229482695173325</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="86">
-        <v>-0.0060065385395203456</v>
+        <v>-0.015046868402275202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="91">
-        <v>0.0063320724959837066</v>
+        <v>0.0039833232039781924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="96">
-        <v>0.0056567439592799633</v>
+        <v>-0.0068764829693986878</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" s="101">
-        <v>0.3126576745286167</v>
+        <v>0.0070835695284810945</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="103" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B21" s="106">
-        <v>-0.0027328733468725279</v>
+        <v>0.0055836836672005707</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="108" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B22" s="111">
-        <v>-0.0064926603357000701</v>
+        <v>-0.02240261832501322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="113" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B23" s="116">
-        <v>-0.0024367502263395965</v>
+        <v>0.020610408859012164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="118" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B24" s="121">
-        <v>0.00020975213947531431</v>
+        <v>0.28384966348893004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="123" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" s="126">
-        <v>0.00041176303481307191</v>
+        <v>-0.0013237163090532855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="131">
+        <v>-0.0044595196330836943</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="136">
+        <v>-0.00094841028666147462</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="141">
+        <v>0.0002401311513123358</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="146">
+        <v>0.00046063150543630178</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="131">
-        <v>-0.0018538908774110806</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="134" t="s">
+      <c r="B30" s="151">
+        <v>-0.0018299467480741368</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="153" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="156">
+        <v>-0.0036555383552561234</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="138">
+      <c r="B32" s="161">
+        <v>-0.003655538355256126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="168">
         <v>666</v>
       </c>
     </row>
